--- a/Financial Services/Nu Holdings.xlsx
+++ b/Financial Services/Nu Holdings.xlsx
@@ -1,33 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financial Services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B3AB12-0F69-AE45-BC5D-7446489845A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39145A37-0260-B247-866F-3B1BAA2DE0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40960" yWindow="9800" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1'!$B$106:$F$106</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1'!$B$19:$F$19</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Sheet 1'!$B$3:$F$3</definedName>
-    <definedName name="_xlchart.v2.10" hidden="1">'Sheet 1'!$B$3:$F$3</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v2.6" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v2.7" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v2.8" hidden="1">'Sheet 1'!$B$106:$F$106</definedName>
-    <definedName name="_xlchart.v2.9" hidden="1">'Sheet 1'!$B$19:$F$19</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -454,9 +441,6 @@
     <t>P/S</t>
   </si>
   <si>
-    <t>P/E</t>
-  </si>
-  <si>
     <t>P/FCF</t>
   </si>
   <si>
@@ -563,6 +547,9 @@
   </si>
   <si>
     <t>Shares (No dilution)</t>
+  </si>
+  <si>
+    <t>P/EBITDA</t>
   </si>
 </sst>
 </file>
@@ -973,18 +960,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1019,12 +994,6 @@
     <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1042,6 +1011,24 @@
     <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2249,35 +2236,35 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>5.77</v>
+    <v>5.59</v>
     <v>2.67</v>
-    <v>0.83799999999999997</v>
-    <v>7.0000000000000007E-2</v>
-    <v>1.7455999999999999E-2</v>
+    <v>0.83599999999999997</v>
+    <v>0.03</v>
+    <v>5.587E-3</v>
     <v>BRL</v>
     <v>Nu Holdings Ltd is a Brazil-based company that provides a digital banking platform. The Company offers its customers products across the five financial seasons: spending, saving, investing, borrowing, and protecting. Its spending solutions are designed to help customers pay for goods and services in their everyday lives with a customized credit line or instantly through a mobile phone, while collecting loyalty points and rewards on applicable transactions. Its savings solutions are designed to help customers deposit, manage and save their money in interest-earning accounts with complementary debit cards. Its investing solutions are designed to help customers invest their money in investment products and services. Its borrowing solutions are designed to provide customers with unsecured loans that are easy to receive, manage and pay back. Its NuInsurance protecting solutions are designed to help customers secure life insurance and funeral benefits.</v>
-    <v>6068</v>
+    <v>8049</v>
     <v>B3 - Brazil Stock Exchange</v>
     <v>BVMF</v>
     <v>BVMF</v>
     <v>Rua Capote Valente, 39, Pinheiros, SAO PAULO, SAO PAULO, 05409-000 BR</v>
-    <v>4.2</v>
+    <v>5.53</v>
     <v>Banking Services</v>
     <v>Stock</v>
-    <v>45036.958333333336</v>
+    <v>45068.947916666664</v>
     <v>0</v>
-    <v>3.9</v>
-    <v>22912410000</v>
+    <v>5.29</v>
+    <v>30736610000</v>
     <v>Nu Holdings Ltd</v>
     <v>Nu Holdings Ltd</v>
-    <v>3.97</v>
-    <v>4.01</v>
-    <v>4.08</v>
-    <v>4685564000</v>
+    <v>5.4</v>
+    <v>5.37</v>
+    <v>5.4</v>
+    <v>4714204000</v>
     <v>NUBR33</v>
     <v>Nu Holdings Ltd (BVMF:NUBR33)</v>
-    <v>1977144</v>
-    <v>16374600</v>
+    <v>4464902</v>
+    <v>41345200</v>
     <v>2016</v>
   </rv>
   <rv s="2">
@@ -2841,10 +2828,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I89" sqref="I89"/>
+      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3367,10 +3354,10 @@
         <v>122</v>
       </c>
       <c r="N15" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="O15" s="20" t="s">
         <v>123</v>
-      </c>
-      <c r="O15" s="20" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3398,15 +3385,15 @@
       </c>
       <c r="M16" s="31">
         <f>N101/F3</f>
-        <v>7.7115107855557152</v>
+        <v>10.344861126630489</v>
       </c>
       <c r="N16" s="31">
-        <f>N101/F28</f>
-        <v>-62.846386781429487</v>
+        <f>N101/F19</f>
+        <v>24.113972662063532</v>
       </c>
       <c r="O16" s="32">
         <f>N101/F106</f>
-        <v>35.729906575576166</v>
+        <v>47.931064595558482</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -3449,7 +3436,7 @@
         <v>35581000</v>
       </c>
       <c r="L18" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -4766,10 +4753,10 @@
       <c r="F83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M83" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="N83" s="35"/>
+      <c r="M83" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="N83" s="63"/>
     </row>
     <row r="84" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -4790,10 +4777,10 @@
       <c r="F84" s="1">
         <v>2221037000</v>
       </c>
-      <c r="M84" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="N84" s="37"/>
+      <c r="M84" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="N84" s="65"/>
     </row>
     <row r="85" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -4815,7 +4802,7 @@
         <v>5175224000</v>
       </c>
       <c r="M85" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N85" s="25">
         <f>F17</f>
@@ -4842,7 +4829,7 @@
         <v>3099753000</v>
       </c>
       <c r="M86" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N86" s="25">
         <f>F56</f>
@@ -4869,7 +4856,7 @@
         <v>755573000</v>
       </c>
       <c r="M87" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N87" s="25">
         <f>F61</f>
@@ -4895,10 +4882,10 @@
       <c r="F88" s="1">
         <v>-20001000</v>
       </c>
-      <c r="M88" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="N88" s="39">
+      <c r="M88" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="N88" s="35">
         <f>N85/(N86+N87)</f>
         <v>2.5546284086539335</v>
       </c>
@@ -4981,10 +4968,10 @@
       <c r="F91" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M91" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="N91" s="39">
+      <c r="M91" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="N91" s="35">
         <f>N89/N90</f>
         <v>-0.18042350138070126</v>
       </c>
@@ -5008,10 +4995,10 @@
       <c r="F92" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M92" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="N92" s="41">
+      <c r="M92" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="N92" s="37">
         <f>N88*(1-N91)</f>
         <v>3.0155434108698849</v>
       </c>
@@ -5035,10 +5022,10 @@
       <c r="F93" s="1">
         <v>-96805000</v>
       </c>
-      <c r="M93" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="N93" s="37"/>
+      <c r="M93" s="64" t="s">
+        <v>133</v>
+      </c>
+      <c r="N93" s="65"/>
     </row>
     <row r="94" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -5060,9 +5047,9 @@
         <v>-127152000</v>
       </c>
       <c r="M94" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="N94" s="42">
+        <v>134</v>
+      </c>
+      <c r="N94" s="38">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -5086,11 +5073,11 @@
         <v>-175621000</v>
       </c>
       <c r="M95" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="N95" s="43" cm="1">
+        <v>135</v>
+      </c>
+      <c r="N95" s="39" cm="1">
         <f t="array" ref="N95">_FV(A1,"Beta")</f>
-        <v>0.83799999999999997</v>
+        <v>0.83599999999999997</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5113,9 +5100,9 @@
         <v>247998000</v>
       </c>
       <c r="M96" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="N96" s="42">
+        <v>136</v>
+      </c>
+      <c r="N96" s="38">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -5138,12 +5125,12 @@
       <c r="F97" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M97" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="N97" s="41">
+      <c r="M97" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="N97" s="37">
         <f>(N94)+((N95)*(N96-N94))</f>
-        <v>7.7025900000000008E-2</v>
+        <v>7.6939800000000003E-2</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5165,10 +5152,10 @@
       <c r="F98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M98" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="N98" s="37"/>
+      <c r="M98" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="N98" s="65"/>
     </row>
     <row r="99" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -5190,7 +5177,7 @@
         <v>581662000</v>
       </c>
       <c r="M99" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N99" s="25">
         <f>N86+N87</f>
@@ -5216,12 +5203,12 @@
       <c r="F100" s="10">
         <v>654039000</v>
       </c>
-      <c r="M100" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="N100" s="39">
+      <c r="M100" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="N100" s="35">
         <f>N99/N103</f>
-        <v>2.576377549920528E-2</v>
+        <v>1.9332229423335338E-2</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5244,11 +5231,11 @@
         <v>184181000</v>
       </c>
       <c r="M101" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="N101" s="44" cm="1">
+        <v>141</v>
+      </c>
+      <c r="N101" s="40" cm="1">
         <f t="array" ref="N101">_FV(A1,"Market cap",TRUE)</f>
-        <v>22912410000</v>
+        <v>30736610000</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5270,12 +5257,12 @@
       <c r="F102" s="10">
         <v>1466641000</v>
       </c>
-      <c r="M102" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="N102" s="39">
+      <c r="M102" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="N102" s="35">
         <f>N101/N103</f>
-        <v>0.97423622450079472</v>
+        <v>0.98066777057666465</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5297,12 +5284,12 @@
       <c r="F103" s="1">
         <v>2705675000</v>
       </c>
-      <c r="M103" s="40" t="s">
-        <v>144</v>
-      </c>
-      <c r="N103" s="45">
+      <c r="M103" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="N103" s="41">
         <f>N99+N101</f>
-        <v>23518331000</v>
+        <v>31342531000</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5324,10 +5311,10 @@
       <c r="F104" s="11">
         <v>4172316000</v>
       </c>
-      <c r="M104" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="N104" s="37"/>
+      <c r="M104" s="64" t="s">
+        <v>144</v>
+      </c>
+      <c r="N104" s="65"/>
     </row>
     <row r="105" spans="1:14" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -5361,7 +5348,7 @@
       </c>
       <c r="N105" s="27">
         <f>(N100*N92)+(N102*N97)</f>
-        <v>0.15273320545053523</v>
+        <v>0.13374955918957826</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5383,33 +5370,33 @@
       <c r="F106" s="1">
         <v>641267000</v>
       </c>
-      <c r="G106" s="46">
+      <c r="G106" s="42">
         <f>F106*(1+$N$106)</f>
         <v>719180901.50094843</v>
       </c>
-      <c r="H106" s="46">
+      <c r="H106" s="42">
         <f t="shared" ref="H106:K106" si="8">G106*(1+$N$106)</f>
         <v>806561337.29587972</v>
       </c>
-      <c r="I106" s="46">
+      <c r="I106" s="42">
         <f t="shared" si="8"/>
         <v>904558490.72579956</v>
       </c>
-      <c r="J106" s="46">
+      <c r="J106" s="42">
         <f t="shared" si="8"/>
         <v>1014462292.3376968</v>
       </c>
-      <c r="K106" s="46">
+      <c r="K106" s="42">
         <f t="shared" si="8"/>
         <v>1137719399.1615715</v>
       </c>
-      <c r="L106" s="47" t="s">
+      <c r="L106" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="M106" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="M106" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="N106" s="49">
+      <c r="N106" s="45">
         <f>(SUM(G4:K4)/5)</f>
         <v>0.12149993918437792</v>
       </c>
@@ -5421,151 +5408,151 @@
       <c r="D107" s="13"/>
       <c r="E107" s="13"/>
       <c r="F107" s="13"/>
-      <c r="G107" s="47"/>
-      <c r="H107" s="47"/>
-      <c r="I107" s="47"/>
-      <c r="J107" s="47"/>
-      <c r="K107" s="50">
+      <c r="G107" s="43"/>
+      <c r="H107" s="43"/>
+      <c r="I107" s="43"/>
+      <c r="J107" s="43"/>
+      <c r="K107" s="46">
         <f>K106*(1+N107)/(N108-N107)</f>
-        <v>9129672899.2854385</v>
-      </c>
-      <c r="L107" s="51" t="s">
+        <v>10723375734.403591</v>
+      </c>
+      <c r="L107" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="M107" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="M107" s="52" t="s">
-        <v>149</v>
-      </c>
-      <c r="N107" s="53">
+      <c r="N107" s="49">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="G108" s="50">
+      <c r="G108" s="46">
         <f t="shared" ref="G108:I108" si="9">G107+G106</f>
         <v>719180901.50094843</v>
       </c>
-      <c r="H108" s="50">
+      <c r="H108" s="46">
         <f t="shared" si="9"/>
         <v>806561337.29587972</v>
       </c>
-      <c r="I108" s="50">
+      <c r="I108" s="46">
         <f t="shared" si="9"/>
         <v>904558490.72579956</v>
       </c>
-      <c r="J108" s="50">
+      <c r="J108" s="46">
         <f>J107+J106</f>
         <v>1014462292.3376968</v>
       </c>
-      <c r="K108" s="50">
+      <c r="K108" s="46">
         <f>K107+K106</f>
-        <v>10267392298.44701</v>
-      </c>
-      <c r="L108" s="51" t="s">
-        <v>144</v>
-      </c>
-      <c r="M108" s="54" t="s">
+        <v>11861095133.565163</v>
+      </c>
+      <c r="L108" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="M108" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="N108" s="51">
+        <f>N105</f>
+        <v>0.13374955918957826</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="G109" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="N108" s="55">
-        <f>N105</f>
-        <v>0.15273320545053523</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="G109" s="56" t="s">
+      <c r="H109" s="61"/>
+    </row>
+    <row r="110" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="G110" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="H109" s="57"/>
-    </row>
-    <row r="110" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="G110" s="58" t="s">
+      <c r="H110" s="40">
+        <f>NPV(N108,G108,H108,I108,J108,K108)</f>
+        <v>8828500891.8445625</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="G111" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="H110" s="44">
-        <f>NPV(N108,G108,H108,I108,J108,K108)</f>
-        <v>7440438180.9582891</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="G111" s="58" t="s">
-        <v>153</v>
-      </c>
-      <c r="H111" s="44">
+      <c r="H111" s="40">
         <f>F40</f>
         <v>6950640000</v>
       </c>
     </row>
     <row r="112" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="G112" s="58" t="s">
-        <v>140</v>
-      </c>
-      <c r="H112" s="44">
+      <c r="G112" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="H112" s="40">
         <f>N99</f>
         <v>605921000</v>
       </c>
     </row>
     <row r="113" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G113" s="58" t="s">
+      <c r="G113" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="H113" s="40">
+        <f>H110+H111-H112</f>
+        <v>15173219891.844563</v>
+      </c>
+    </row>
+    <row r="114" spans="7:8" ht="20" x14ac:dyDescent="0.25">
+      <c r="G114" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="H114" s="53" cm="1">
+        <f t="array" ref="H114">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>4714204000</v>
+      </c>
+    </row>
+    <row r="115" spans="7:8" ht="20" x14ac:dyDescent="0.25">
+      <c r="G115" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="H113" s="44">
-        <f>H110+H111-H112</f>
-        <v>13785157180.95829</v>
-      </c>
-    </row>
-    <row r="114" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G114" s="58" t="s">
-        <v>159</v>
-      </c>
-      <c r="H114" s="59" cm="1">
-        <f t="array" ref="H114">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>4685564000</v>
-      </c>
-    </row>
-    <row r="115" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G115" s="60" t="s">
+      <c r="H115" s="55">
+        <f>H113/H114</f>
+        <v>3.2186175846112222</v>
+      </c>
+    </row>
+    <row r="116" spans="7:8" ht="20" x14ac:dyDescent="0.25">
+      <c r="G116" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="H115" s="61">
-        <f>H113/H114</f>
-        <v>2.9420486372522689</v>
-      </c>
-    </row>
-    <row r="116" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G116" s="58" t="s">
+      <c r="H116" s="56" cm="1">
+        <f t="array" ref="H116">_FV(A1,"Price")</f>
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="117" spans="7:8" ht="20" x14ac:dyDescent="0.25">
+      <c r="G117" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="H116" s="62" cm="1">
-        <f t="array" ref="H116">_FV(A1,"Price")</f>
-        <v>4.08</v>
-      </c>
-    </row>
-    <row r="117" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G117" s="63" t="s">
+      <c r="H117" s="58">
+        <f>H115/H116-1</f>
+        <v>-0.40395970655347746</v>
+      </c>
+    </row>
+    <row r="118" spans="7:8" ht="20" x14ac:dyDescent="0.25">
+      <c r="G118" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="H117" s="64">
-        <f>H115/H116-1</f>
-        <v>-0.27890964773228699</v>
-      </c>
-    </row>
-    <row r="118" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G118" s="63" t="s">
-        <v>158</v>
-      </c>
-      <c r="H118" s="65" t="str">
+      <c r="H118" s="59" t="str">
         <f>IF(H115&gt;H116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="G109:H109"/>
     <mergeCell ref="M83:N83"/>
     <mergeCell ref="M84:N84"/>
     <mergeCell ref="M93:N93"/>
     <mergeCell ref="M98:N98"/>
     <mergeCell ref="M104:N104"/>
-    <mergeCell ref="G109:H109"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/NU" display="ROIC.AI | NU" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
